--- a/medicine/Pharmacie/Chlorméthine/Chlorméthine.xlsx
+++ b/medicine/Pharmacie/Chlorméthine/Chlorméthine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chlorm%C3%A9thine</t>
+          <t>Chlorméthine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chlorméthine a été le premier agent alkylant à être utilisé en thérapeutique (1942). Cette moutarde azotée est historiquement utilisée en oncologie, mais aussi en dermatologie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chlorm%C3%A9thine</t>
+          <t>Chlorméthine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chlorm%C3%A9thine</t>
+          <t>Chlorméthine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chlorm%C3%A9thine</t>
+          <t>Chlorméthine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,10 +585,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>maladie de Hodgkin
-mycosis fongoïde (le Valchlor est disponible dans cette indication aux États-Unis, cette spécialité des laboratoires Actelion fait l'objet d'autorisation temporaire d'utilisation en France[5])
+mycosis fongoïde (le Valchlor est disponible dans cette indication aux États-Unis, cette spécialité des laboratoires Actelion fait l'objet d'autorisation temporaire d'utilisation en France)
 psoriasis</t>
         </is>
       </c>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chlorm%C3%A9thine</t>
+          <t>Chlorméthine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,6 +620,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chlorm%C3%A9thine</t>
+          <t>Chlorméthine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -628,6 +648,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
